--- a/mathTransformed/HMPSTT_(2016-01-16)_41_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-01-16)_41_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -472,7 +477,8 @@
           <t>NAMES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -501,6 +507,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>N S F H S KulagodMudalagiChikkodi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -528,6 +539,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S AvaragolHukkeriEPU</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -555,6 +571,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>New High School KempwadAthani</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -582,6 +603,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>S D High SchoolSankeshwarHukkeri</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -609,6 +635,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>S A P V M KanagalaHukeri</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Belgum</t>
         </is>
       </c>
@@ -636,6 +667,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>S B S Kanya ShalaNipani</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -663,6 +699,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>S S High School KhanagaonGokak</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -690,6 +731,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Govt. High School NeermanviManvi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -717,6 +763,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G G H S KavitalManvi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -746,6 +797,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Govt. High SchoolTalakatanalMudalagiGokak</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -773,6 +829,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G H S KhanagaonGokak</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -800,6 +861,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Shri ParshwamatiKanya VidyalayAkol</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -827,6 +893,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Govt. P U College (High School Section) MajalattiChikkodi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -854,6 +925,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt. High SchoolNeeralakeriLingasugur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -881,6 +957,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G G H S ShindikurbetGokak</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Mudalagi</t>
         </is>
       </c>
@@ -908,6 +989,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S Nadi – IngalagaonAthani</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -935,6 +1021,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>K S S High School JugulAthani</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -962,6 +1053,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Bhirdi High School BhirdiBhirdiRaibag</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -989,6 +1085,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt. P U College GokakGokak</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1016,6 +1117,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S BasapurHukkeri</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1043,6 +1149,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Govt. High School Matamari</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1070,6 +1181,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. High SchoolK E B Colony</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1099,6 +1215,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Govt. High School HalalliAthani</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -1126,6 +1247,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt. High School MavinabhaviLingasugar</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1155,6 +1281,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G P U College (High School Section) NaganurGokakMudalagi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -1182,6 +1313,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Govt. High School SaavasuddiRaibagChikkodi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1209,6 +1345,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G K H P SchoolWadagolNippaniChikkodi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1236,6 +1377,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S GurlapurMudalagi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -1263,6 +1409,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt. High School HampanalSindanuru</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1290,6 +1441,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Govt. High SchoolNagaramunnoliChikkodi</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1319,6 +1475,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Ajitkumar Baane High School HandigundRaibaag</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Belgaum</t>
         </is>
       </c>
@@ -1346,6 +1507,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H P S PudakalakattiGokak</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1373,6 +1539,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S Udbal (U)Sindhanur</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1402,6 +1573,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H SchoolNallanatti Mudalgi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Chikkodi</t>
         </is>
       </c>
@@ -1431,6 +1607,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>T G TK H P SPattanakudiChikkodi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1458,6 +1639,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>U G H P S JanekalManvi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1485,6 +1671,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt High School SangapurManvi</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1512,6 +1703,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>G P U H S UrubinahattiGokak</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1539,6 +1735,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Govt. High SchoolKerurChikkodi</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Belagavi</t>
         </is>
       </c>
@@ -1566,6 +1767,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G P U (High School Section) Hutti Gold Mines</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1592,6 +1798,11 @@
         </is>
       </c>
       <c r="F44" t="inlineStr">
+        <is>
+          <t>S M S ShindikurbetGokak</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Belagavi</t>
         </is>

--- a/mathTransformed/HMPSTT_(2016-01-16)_41_3.xlsx
+++ b/mathTransformed/HMPSTT_(2016-01-16)_41_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,6 @@
           <t>NAMES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>NAME</t>
@@ -512,7 +511,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -544,7 +543,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -576,7 +575,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -608,7 +607,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -640,7 +639,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Belgum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -672,7 +671,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -704,7 +703,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -802,7 +801,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -834,7 +833,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -866,7 +865,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -898,7 +897,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -962,7 +961,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Mudalagi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -994,7 +993,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1025,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1057,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1089,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1121,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1219,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1285,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1317,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1349,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1381,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1445,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1479,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Belgaum</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1511,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1577,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Chikkodi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1611,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1707,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1739,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1803,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Belagavi</t>
+          <t>Belagavi (Belgaum)</t>
         </is>
       </c>
     </row>
